--- a/notes/service token database structure.xlsx
+++ b/notes/service token database structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\github\postdoc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DD036C-BD06-4113-9F05-8DF5982F2730}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E97E53D-3DCA-4EF2-943B-2F1AD513B067}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="17256" windowHeight="5760" xr2:uid="{84F659AD-9679-4495-B1DE-09191C75A911}"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="17250" windowHeight="5760" xr2:uid="{84F659AD-9679-4495-B1DE-09191C75A911}"/>
   </bookViews>
   <sheets>
     <sheet name="service token" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>base64 encoded</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>table</t>
+  </si>
+  <si>
+    <t>database</t>
   </si>
 </sst>
 </file>
@@ -500,22 +503,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684E84FB-201A-4863-A66C-F66B70E31F9C}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -532,7 +535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -543,7 +546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -551,7 +554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -559,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -567,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -575,7 +578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -583,7 +586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -591,7 +594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -599,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -607,50 +610,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -659,14 +659,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>0</v>
       </c>
     </row>

--- a/notes/service token database structure.xlsx
+++ b/notes/service token database structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\github\postdoc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E97E53D-3DCA-4EF2-943B-2F1AD513B067}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95CC196-0D04-4589-AE11-7B1C1C7FBD89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="17250" windowHeight="5760" xr2:uid="{84F659AD-9679-4495-B1DE-09191C75A911}"/>
+    <workbookView xWindow="0" yWindow="1815" windowWidth="17250" windowHeight="5760" xr2:uid="{84F659AD-9679-4495-B1DE-09191C75A911}"/>
   </bookViews>
   <sheets>
     <sheet name="service token" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>base64 encoded</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>secure</t>
-  </si>
-  <si>
-    <t>base64 encoded, if empty, prompts for password (if the application supports it)</t>
   </si>
   <si>
     <t>password</t>
@@ -507,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,51 +517,51 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -572,7 +569,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -580,64 +577,64 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
